--- a/build-test/tables/ai_battle.xlsx
+++ b/build-test/tables/ai_battle.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="AIBattle" sheetId="1" r:id="rId1"/>
+    <sheet name="ai_battle" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -503,7 +503,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
